--- a/mathTransformed/HMPSTT_(2015-08-29)_40_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-08-29)_40_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>U G H S KallapurNaragundi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Kanakadas GirlsHigh School Konnur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S A P D High School Nargund</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>K V S R High School Timmapur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>K H P GGHS Hulkoti</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt High School YallapurShirahatti</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S RMSA YaklaspurMundargi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHullurShirahatti</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHullurShirahatti</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -726,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Adarsha VidyalayaMundargi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -753,6 +808,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S (RMSA) HarogeriMundargi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -780,6 +840,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>H C E S K H Patil High School</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -807,6 +872,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>U G H S BhairanahattiNaragund</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -834,6 +904,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S RaddernagnurNaragund</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -861,6 +936,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S LaxmeshwarShirahatti</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -888,6 +968,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>K H KuradagiHigh School KorlahalliMundaragi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -915,6 +1000,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H SJantalishirurMundaragi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -942,6 +1032,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Govt. High School BalehosurShirahatti</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -969,6 +1064,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>M KelageriMuncipal High School</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -996,6 +1096,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>KatageriG H S Kotumachagi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1023,6 +1128,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>PSBD girls high schoolLaxmeshwarShirahatti</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1050,6 +1160,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S DoniMundaragi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1077,6 +1192,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S Antur Bentur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1104,6 +1224,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S DoniMundaragi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1131,6 +1256,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>H C E S High School Asundi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1158,6 +1288,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S RMSA HesarurMundargi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1185,6 +1320,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S HallikeriMundaragi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1212,6 +1352,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S Hirehandigol</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1239,6 +1384,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>M S Dambal Girls High SchoolMundargi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1266,6 +1416,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>(Tammangoudar) K R C R SchoolDambalMundaragi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1293,6 +1448,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>S J A High School BannikoppaShirahatt</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1320,6 +1480,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>SMK GHS MevundiMundargi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1347,6 +1512,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHalligudiMundargi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1374,6 +1544,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>S B H S VenkatapurMundargi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1401,6 +1576,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt. High School HadaliNaragund</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1428,6 +1608,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S (RMSA) ChikkavaddattiMundaragi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1455,6 +1640,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Govt. High School Hatalageri</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1482,6 +1672,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>GindimathGHS Soratur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1509,6 +1704,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>J A High School Mundargi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Gadag</t>
         </is>
       </c>
@@ -1537,6 +1737,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>Y V H S HinnahmgiMundargi</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Gadag</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-08-29)_40_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-08-29)_40_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
